--- a/HN SA 2016 ( DEPOSITOS )/DEPOSITOS DICIEMBRE 2016.-/ALCOSUR.-.xlsx
+++ b/HN SA 2016 ( DEPOSITOS )/DEPOSITOS DICIEMBRE 2016.-/ALCOSUR.-.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="158">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -175,9 +175,6 @@
     <t xml:space="preserve">001-001-4459</t>
   </si>
   <si>
-    <t xml:space="preserve">falta</t>
-  </si>
-  <si>
     <t xml:space="preserve">001-001-5152</t>
   </si>
   <si>
@@ -208,9 +205,6 @@
     <t xml:space="preserve">001-001-4464</t>
   </si>
   <si>
-    <t xml:space="preserve">No hay boleta</t>
-  </si>
-  <si>
     <t xml:space="preserve">001-001-5165</t>
   </si>
   <si>
@@ -476,9 +470,6 @@
   </si>
   <si>
     <t xml:space="preserve">001-001-4612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO HAY BOLETA</t>
   </si>
   <si>
     <t xml:space="preserve">001-001-5305</t>
@@ -680,10 +671,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="A1:AMJ89"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="N:O"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1473,22 +1464,18 @@
       <c r="M18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N18" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="O18" s="11" t="n">
-        <v>-118000</v>
-      </c>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
         <v>42713</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>14</v>
@@ -1528,10 +1515,10 @@
         <v>42713</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>14</v>
@@ -1571,10 +1558,10 @@
         <v>42713</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>14</v>
@@ -1612,10 +1599,10 @@
         <v>42713</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>14</v>
@@ -1655,10 +1642,10 @@
         <v>42713</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>14</v>
@@ -1698,10 +1685,10 @@
         <v>42713</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>14</v>
@@ -1723,9 +1710,7 @@
       <c r="K24" s="10"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="N24" s="4"/>
       <c r="O24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1733,10 +1718,10 @@
         <v>42716</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>14</v>
@@ -1776,10 +1761,10 @@
         <v>42716</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>14</v>
@@ -1801,9 +1786,7 @@
       <c r="K26" s="10"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="N26" s="4"/>
       <c r="O26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1811,10 +1794,10 @@
         <v>42716</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>14</v>
@@ -1836,9 +1819,7 @@
       <c r="K27" s="10"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="N27" s="4"/>
       <c r="O27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1846,10 +1827,10 @@
         <v>42717</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>14</v>
@@ -1889,10 +1870,10 @@
         <v>42717</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>14</v>
@@ -1914,9 +1895,7 @@
       <c r="K29" s="10"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
-      <c r="N29" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="N29" s="4"/>
       <c r="O29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1924,10 +1903,10 @@
         <v>42718</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>14</v>
@@ -1967,10 +1946,10 @@
         <v>42719</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>14</v>
@@ -2010,10 +1989,10 @@
         <v>42719</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>14</v>
@@ -2051,10 +2030,10 @@
         <v>42719</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>14</v>
@@ -2094,10 +2073,10 @@
         <v>42719</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>14</v>
@@ -2119,9 +2098,7 @@
       <c r="K34" s="10"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
-      <c r="N34" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="N34" s="4"/>
       <c r="O34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2129,10 +2106,10 @@
         <v>42719</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>14</v>
@@ -2154,9 +2131,7 @@
       <c r="K35" s="10"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="N35" s="4"/>
       <c r="O35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2164,10 +2139,10 @@
         <v>42719</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>14</v>
@@ -2189,9 +2164,7 @@
       <c r="K36" s="10"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
-      <c r="N36" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="N36" s="4"/>
       <c r="O36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2199,10 +2172,10 @@
         <v>42722</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>14</v>
@@ -2227,10 +2200,10 @@
       </c>
       <c r="K37" s="10"/>
       <c r="L37" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
@@ -2240,10 +2213,10 @@
         <v>42722</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>14</v>
@@ -2268,10 +2241,10 @@
       </c>
       <c r="K38" s="10"/>
       <c r="L38" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
@@ -2281,10 +2254,10 @@
         <v>42722</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>14</v>
@@ -2311,10 +2284,10 @@
         <v>57688000</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
@@ -2324,10 +2297,10 @@
         <v>42722</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>14</v>
@@ -2367,10 +2340,10 @@
         <v>42722</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>14</v>
@@ -2410,10 +2383,10 @@
         <v>42722</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>14</v>
@@ -2453,10 +2426,10 @@
         <v>42722</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>14</v>
@@ -2496,10 +2469,10 @@
         <v>42723</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>14</v>
@@ -2526,7 +2499,7 @@
         <v>36200000</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>16</v>
@@ -2539,10 +2512,10 @@
         <v>42723</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>14</v>
@@ -2567,7 +2540,7 @@
       </c>
       <c r="K45" s="10"/>
       <c r="L45" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>16</v>
@@ -2580,10 +2553,10 @@
         <v>42723</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>14</v>
@@ -2610,7 +2583,7 @@
         <v>73900000</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>16</v>
@@ -2623,10 +2596,10 @@
         <v>42724</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>14</v>
@@ -2648,9 +2621,7 @@
       <c r="K47" s="10"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
-      <c r="N47" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="N47" s="4"/>
       <c r="O47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2658,10 +2629,10 @@
         <v>42724</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>14</v>
@@ -2683,9 +2654,7 @@
       <c r="K48" s="10"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
-      <c r="N48" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="N48" s="4"/>
       <c r="O48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2693,10 +2662,10 @@
         <v>42725</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>14</v>
@@ -2723,10 +2692,10 @@
         <v>22444000</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
@@ -2736,10 +2705,10 @@
         <v>42725</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>14</v>
@@ -2761,9 +2730,7 @@
       <c r="K50" s="10"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
-      <c r="N50" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="N50" s="4"/>
       <c r="O50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2771,10 +2738,10 @@
         <v>42725</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>14</v>
@@ -2796,9 +2763,7 @@
       <c r="K51" s="10"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
-      <c r="N51" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="N51" s="4"/>
       <c r="O51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2806,10 +2771,10 @@
         <v>42725</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>14</v>
@@ -2834,10 +2799,10 @@
       </c>
       <c r="K52" s="10"/>
       <c r="L52" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
@@ -2847,10 +2812,10 @@
         <v>42725</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>14</v>
@@ -2875,10 +2840,10 @@
       </c>
       <c r="K53" s="10"/>
       <c r="L53" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
@@ -2888,10 +2853,10 @@
         <v>42725</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>14</v>
@@ -2913,9 +2878,7 @@
       <c r="K54" s="10"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
-      <c r="N54" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="N54" s="4"/>
       <c r="O54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2923,10 +2886,10 @@
         <v>42725</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>14</v>
@@ -2948,9 +2911,7 @@
       <c r="K55" s="10"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
-      <c r="N55" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="N55" s="4"/>
       <c r="O55" s="4"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2958,10 +2919,10 @@
         <v>42726</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>14</v>
@@ -2986,7 +2947,7 @@
       </c>
       <c r="K56" s="10"/>
       <c r="L56" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>16</v>
@@ -2999,10 +2960,10 @@
         <v>42726</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>14</v>
@@ -3029,7 +2990,7 @@
         <v>95061000</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>16</v>
@@ -3042,10 +3003,10 @@
         <v>42726</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>14</v>
@@ -3085,10 +3046,10 @@
         <v>42726</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>14</v>
@@ -3126,10 +3087,10 @@
         <v>42726</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>14</v>
@@ -3169,10 +3130,10 @@
         <v>42727</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>14</v>
@@ -3199,7 +3160,7 @@
         <v>120338000</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M61" s="4" t="s">
         <v>16</v>
@@ -3212,10 +3173,10 @@
         <v>42727</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>14</v>
@@ -3242,10 +3203,10 @@
         <v>19548000</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
@@ -3255,10 +3216,10 @@
         <v>42727</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>14</v>
@@ -3283,10 +3244,10 @@
       </c>
       <c r="K63" s="10"/>
       <c r="L63" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
@@ -3296,10 +3257,10 @@
         <v>42727</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>14</v>
@@ -3326,10 +3287,10 @@
         <v>39412000</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
@@ -3339,10 +3300,10 @@
         <v>42727</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>14</v>
@@ -3364,9 +3325,7 @@
       <c r="K65" s="10"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
-      <c r="N65" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="N65" s="4"/>
       <c r="O65" s="4"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3374,10 +3333,10 @@
         <v>42727</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>14</v>
@@ -3399,9 +3358,7 @@
       <c r="K66" s="10"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
-      <c r="N66" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="N66" s="4"/>
       <c r="O66" s="4"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3409,10 +3366,10 @@
         <v>42730</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>14</v>
@@ -3439,10 +3396,10 @@
         <v>20996000</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
@@ -3452,10 +3409,10 @@
         <v>42730</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>14</v>
@@ -3480,10 +3437,10 @@
       </c>
       <c r="K68" s="10"/>
       <c r="L68" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
@@ -3493,10 +3450,10 @@
         <v>42730</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>14</v>
@@ -3523,10 +3480,10 @@
         <v>40326000</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
@@ -3536,10 +3493,10 @@
         <v>42731</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>14</v>
@@ -3566,7 +3523,7 @@
         <v>22444000</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M70" s="4" t="s">
         <v>16</v>
@@ -3579,10 +3536,10 @@
         <v>42731</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>14</v>
@@ -3604,9 +3561,7 @@
       <c r="K71" s="10"/>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
-      <c r="N71" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="N71" s="4"/>
       <c r="O71" s="4"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3614,10 +3569,10 @@
         <v>42731</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>14</v>
@@ -3639,9 +3594,7 @@
       <c r="K72" s="10"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
-      <c r="N72" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="N72" s="4"/>
       <c r="O72" s="4"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3649,10 +3602,10 @@
         <v>42731</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>14</v>
@@ -3679,7 +3632,7 @@
         <v>36200000</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M73" s="4" t="s">
         <v>16</v>
@@ -3692,10 +3645,10 @@
         <v>42731</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>14</v>
@@ -3717,9 +3670,7 @@
       <c r="K74" s="10"/>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
-      <c r="N74" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="N74" s="4"/>
       <c r="O74" s="4"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3727,10 +3678,10 @@
         <v>42731</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>14</v>
@@ -3752,9 +3703,7 @@
       <c r="K75" s="10"/>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
-      <c r="N75" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="N75" s="4"/>
       <c r="O75" s="4"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3762,10 +3711,10 @@
         <v>42731</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>14</v>
@@ -3792,10 +3741,10 @@
         <v>20996000</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
@@ -3805,16 +3754,16 @@
         <v>42731</v>
       </c>
       <c r="B77" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="F77" s="7" t="n">
         <v>4800</v>
@@ -3830,9 +3779,7 @@
       <c r="K77" s="10"/>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
-      <c r="N77" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="N77" s="4"/>
       <c r="O77" s="4"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3840,10 +3787,10 @@
         <v>42731</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>14</v>
@@ -3865,9 +3812,7 @@
       <c r="K78" s="10"/>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
-      <c r="N78" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="N78" s="4"/>
       <c r="O78" s="4"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3875,10 +3820,10 @@
         <v>42732</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>14</v>
@@ -3900,9 +3845,7 @@
       <c r="K79" s="10"/>
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
-      <c r="N79" s="4" t="s">
-        <v>152</v>
-      </c>
+      <c r="N79" s="4"/>
       <c r="O79" s="4"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3910,10 +3853,10 @@
         <v>42732</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>14</v>
@@ -3938,7 +3881,7 @@
       </c>
       <c r="K80" s="10"/>
       <c r="L80" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M80" s="4" t="s">
         <v>16</v>
@@ -3951,10 +3894,10 @@
         <v>42732</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>14</v>
@@ -3981,7 +3924,7 @@
         <v>37150000</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M81" s="4" t="s">
         <v>16</v>
@@ -3994,10 +3937,10 @@
         <v>42733</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>14</v>
@@ -4024,7 +3967,7 @@
         <v>20996000</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M82" s="4" t="s">
         <v>16</v>
@@ -4037,10 +3980,10 @@
         <v>42733</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>14</v>
@@ -4067,7 +4010,7 @@
         <v>35190000</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M83" s="4" t="s">
         <v>16</v>
@@ -4080,10 +4023,10 @@
         <v>42733</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>14</v>
@@ -4108,7 +4051,7 @@
       </c>
       <c r="K84" s="10"/>
       <c r="L84" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M84" s="4" t="s">
         <v>16</v>
@@ -4121,10 +4064,10 @@
         <v>42733</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>14</v>
@@ -4151,7 +4094,7 @@
         <v>86426000</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M85" s="4" t="s">
         <v>16</v>
@@ -4178,12 +4121,6 @@
         <v>-714405000</v>
       </c>
     </row>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
